--- a/data/long_bre/P18_2-Edad-long_bre.xlsx
+++ b/data/long_bre/P18_2-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-12,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,61%</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>-4,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-34,15%</t>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-38,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 7,42</t>
+          <t>-9,01; 8,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 14,72</t>
+          <t>-10,8; 15,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 2,62</t>
+          <t>-25,36; -0,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,65; 91,63</t>
+          <t>-9,14; 17,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 69,31</t>
+          <t>-52,75; 102,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 12,36</t>
+          <t>-30,71; 69,96</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-64,76; 0,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; 192,19</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,86%</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>-8,73%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 3,93</t>
+          <t>-21,79; 4,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 11,5</t>
+          <t>-20,69; 9,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 22,63</t>
+          <t>-4,31; 23,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 9,68</t>
+          <t>-13,06; 20,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,07; 26,33</t>
+          <t>-41,02; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 57,96</t>
+          <t>-32,73; 19,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 57,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 50,55</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-23,74%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 21,91</t>
+          <t>-4,39; 22,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 10,41</t>
+          <t>-9,41; 13,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 13,62</t>
+          <t>-8,28; 13,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 61,83</t>
+          <t>-23,15; 7,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 83,65</t>
+          <t>-8,9; 67,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 100,76</t>
+          <t>-40,5; 114,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-34,14; 106,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-55,76; 36,53</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-46,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 0,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 19,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 7,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-72,28; 4,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 83,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 47,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>-18,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>-46,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-48,52%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 24,96</t>
+          <t>-21,28; -0,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 15,29</t>
+          <t>-8,63; 17,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 10,05</t>
+          <t>-13,73; 7,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 87,44</t>
+          <t>-43,35; -0,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 43,65</t>
+          <t>-72,68; 2,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 21,72</t>
+          <t>-22,27; 74,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-45,96; 40,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-76,33; 0,97</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>37,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,96%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28,22%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 11,66</t>
+          <t>0,38; 25,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 3,79</t>
+          <t>-13,79; 17,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 15,39</t>
+          <t>-14,21; 9,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 34,97</t>
+          <t>-5,11; 29,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,59; 22,12</t>
+          <t>1,4; 101,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 98,69</t>
+          <t>-26,63; 50,52</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-24,9; 20,11</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-12,09; 104,87</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,72</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>-6,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-25,94%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20,54%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 7,19</t>
+          <t>-18,8; 12,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 13,81</t>
+          <t>-25,59; 5,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 1,21</t>
+          <t>-5,06; 14,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 52,94</t>
+          <t>-5,14; 21,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 50,3</t>
+          <t>-35,32; 33,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 4,76</t>
+          <t>-69,62; 29,39</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 90,52</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-19,84; 152,02</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 14,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 7,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 17,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 42,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 19,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 50,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-24,79%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-12,38%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 10,08</t>
+          <t>-8,15; 7,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 7,58</t>
+          <t>-10,21; 14,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 8,73</t>
+          <t>-17,54; 1,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 30,7</t>
+          <t>-14,9; 6,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 78,3</t>
+          <t>-36,32; 53,11</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 39,6</t>
+          <t>-25,21; 54,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-46,17; 4,84</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-40,97; 27,41</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>-8,36%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-12,01%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 12,45</t>
+          <t>-11,88; 10,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 7,45</t>
+          <t>-15,74; 7,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 9,69</t>
+          <t>-2,54; 16,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 104,85</t>
+          <t>-17,31; 4,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 24,63</t>
+          <t>-23,92; 30,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 48,72</t>
+          <t>-27,3; 18,15</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 48,97</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; 10,29</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,41%</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>59,21%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 6,09</t>
+          <t>-10,78; 11,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 10,22</t>
+          <t>-7,24; 7,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 1,86</t>
+          <t>-9,01; 8,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 16,48</t>
+          <t>2,19; 18,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 26,66</t>
+          <t>-23,01; 37,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 3,88</t>
+          <t>-40,83; 71,41</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-25,88; 39,4</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 152,38</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 8,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 8,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 13,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 22,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 67,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 73,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>-1,94%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-18,73%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 8,79</t>
+          <t>-3,89; 9,85</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 12,51</t>
+          <t>-11,48; 8,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 3,06</t>
+          <t>-5,73; 8,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 70,46</t>
+          <t>-19,09; 3,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 47,53</t>
+          <t>-22,17; 77,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-38,46; 10,36</t>
+          <t>-27,01; 28,4</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; 44,87</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-46,22; 14,84</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>-2,89%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-14,5%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 14,82</t>
+          <t>-10,85; 7,77</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 16,26</t>
+          <t>-11,15; 8,78</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 15,74</t>
+          <t>-16,79; 0,48</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 44,17</t>
+          <t>-10,21; 11,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 44,79</t>
+          <t>-23,06; 20,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 45,14</t>
+          <t>-22,41; 22,65</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-28,79; 1,12</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-18,93; 29,89</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-3,91</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,43%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 7,1</t>
+          <t>-10,57; 8,39</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 3,61</t>
+          <t>-6,35; 9,17</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 8,44</t>
+          <t>-1,24; 13,68</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 18,94</t>
+          <t>-3,13; 15,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-48,89; 16,69</t>
+          <t>-23,22; 22,72</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 39,41</t>
+          <t>-28,19; 64,93</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 73,09</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-11,91; 94,02</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>14,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-7,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 8,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2,77; 26,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 17,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 57,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,15; 217,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 87,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-16,07</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-27,63%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-15,42%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-4,74%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 4,77</t>
+          <t>-9,25; 6,32</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -0,25</t>
+          <t>-9,11; 11,91</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 7,85</t>
+          <t>-13,72; 4,21</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 13,38</t>
+          <t>-13,53; 10,44</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-48,27; -0,21</t>
+          <t>-43,46; 48,79</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 18,18</t>
+          <t>-25,62; 44,8</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-35,87; 13,92</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-37,48; 53,55</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>9,53</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 22,7</t>
+          <t>-4,17; 17,81</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 13,74</t>
+          <t>-6,96; 14,64</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 9,07</t>
+          <t>-4,65; 15,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 81,23</t>
+          <t>-2,9; 21,72</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 84,46</t>
+          <t>-9,42; 54,85</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 49,7</t>
+          <t>-15,24; 43,08</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-9,92; 43,18</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 71,33</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>-8,43</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>-10,11%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>-20,4%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-0,75%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-23,24%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 3,11</t>
+          <t>-15,34; 6,5</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 8,34</t>
+          <t>-15,62; 4,27</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 1,27</t>
+          <t>-8,85; 9,23</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 21,06</t>
+          <t>-20,79; 4,57</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 29,8</t>
+          <t>-30,58; 16,73</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 4,99</t>
+          <t>-47,61; 18,61</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-28,88; 42,37</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-49,34; 20,04</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 4,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 12,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 6,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 10,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>14,79</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>77,19%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,55</t>
+          <t>-18,05; 10,66</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 2,91</t>
+          <t>4,31; 25,82</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 6,38</t>
+          <t>-3,08; 18,07</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 17,54</t>
+          <t>-12,78; 14,66</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 16,19</t>
+          <t>-56,28; 70,54</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 30,97</t>
+          <t>16,02; 195,15</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 89,59</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-41,71; 95,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-5,33</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-16,05</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-7,43</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-5,7</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-13,43%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-28,38%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-14,66%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-10,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-17,1; 7,21</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-30,29; -1,8</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-19,07; 4,46</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-20,14; 10,57</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-35,64; 22,46</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-47,48; -3,62</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-33,82; 10,61</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-32,92; 25,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>1,35%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>17,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 18,33</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 13,61</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-10,49; 10,48</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 16,05</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 58,58</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-36,01; 72,93</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-34,83; 61,06</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-32,31; 93,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-4,33</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-7,45%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-15,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 2,39</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 8,73</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 1,59</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; 1,2</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-26,63; 15,05</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 31,69</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 6,14</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-32,64; 5,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-3,69</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 5,36</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 1,51</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 4,73</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 7,07</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; 14,27</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-17,13; 3,44</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-9,1; 10,38</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 16,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-3,35%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 6,23</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 3,31</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 6,24</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 7,63</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 16,12</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-23,67; 17,51</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 29,73</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 35,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
